--- a/API DOC_3차 수정본.xlsx
+++ b/API DOC_3차 수정본.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_file\Basis-Theater\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45BD139-11B5-47A5-81C8-EE249C709D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935"/>
+    <workbookView xWindow="6960" yWindow="2650" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -295,8 +296,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,12 +594,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -626,8 +621,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -946,51 +947,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.875" customWidth="1"/>
-    <col min="4" max="4" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="63" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:6" ht="30" customHeight="1">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>4</v>
@@ -1028,7 +1032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="8" t="s">
         <v>5</v>
@@ -1046,45 +1050,45 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:6" ht="32">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:6" ht="30" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="8" t="s">
         <v>11</v>
@@ -1102,7 +1106,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
@@ -1120,7 +1124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="8" t="s">
         <v>13</v>
@@ -1138,7 +1142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
@@ -1156,47 +1160,47 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:6" ht="30" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:6" ht="30" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1212,7 +1216,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8" t="s">
         <v>32</v>
@@ -1230,7 +1234,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8" t="s">
         <v>32</v>
@@ -1248,7 +1252,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>32</v>
@@ -1266,7 +1270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
         <v>32</v>
@@ -1284,7 +1288,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
         <v>36</v>
@@ -1302,33 +1306,33 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:6" ht="30" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="B22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>